--- a/资源文件/flash资源/srcdata/FLASH_note.xlsx
+++ b/资源文件/flash资源/srcdata/FLASH_note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>资源名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>中间的暂停播放按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB灯APP背景图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -648,6 +656,14 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
